--- a/docs/ST3/ST3_26.07.24_output.xlsx
+++ b/docs/ST3/ST3_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731675687.3036597</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731675687.827157</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675687.3036597.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675687.827157.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>297.29</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>296.43</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.8600000000000136</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731675688.4187438</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731675689.2435386</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675688.4187438.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675689.2435386.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>296.3</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>295.22</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.079999999999984</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731675689.6978116</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731675690.710876</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675689.6978116.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675690.710876.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>294.94</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>294.03</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.910000000000025</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731675700.2253342</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731675700.777454</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675700.2253342.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675700.777454.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>134.78</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>134.45</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.3300000000000125</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731675701.521847</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731675702.2124052</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675701.521847.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675702.2124052.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>133.67</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.86</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.1900000000000261</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731675703.3718796</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731675703.7191663</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675703.3718796.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675703.7191663.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>133.12</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>133.4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731675706.4987776</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731675707.2965097</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675706.4987776.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675707.2965097.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>135.21</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>135.75</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.539999999999992</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731675709.5073564</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731675712.5094378</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675709.5073564.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675712.5094378.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6965</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6942.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-22.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731675713.275748</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731675714.2026317</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675713.275748.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675714.2026317.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6930.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6902</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>28.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731675714.6870651</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731675715.4349463</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675714.6870651.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675715.4349463.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6913.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6907.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>6</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731675716.4462552</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731675719.0438843</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675716.4462552.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675719.0438843.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6893.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6943.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-50</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.73</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731675726.5823429</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731675727.6033266</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675726.5823429.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675727.6033266.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>534.3</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>524.9</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>9.399999999999977</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>1.76</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731675727.8326116</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731675728.9925618</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675727.8326116.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675728.9925618.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>529.05</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>522.9</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>6.149999999999977</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731675729.735664</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731675730.4487534</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675729.735664.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675730.4487534.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>520.8</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>521.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.7000000000000455</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731675735.5900676</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731675736.785745</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675735.5900676.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675736.785745.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1097.2</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1093</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-4.200000000000045</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731675738.5983076</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731675739.0471303</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675738.5983076.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675739.0471303.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1096.2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1096.6</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.3999999999998636</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731675739.5888214</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731675740.1796687</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675739.5888214.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675740.1796687.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1086</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1078.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>7.400000000000091</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731675740.9498527</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731675741.8284154</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675740.9498527.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675741.8284154.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1071.8</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1075.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-3.400000000000091</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731675742.8244233</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731675743.3727944</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675742.8244233.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731675743.3727944.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1060.6</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1063</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-2.400000000000091</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731675749.0891418</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731675749.4527209</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675749.0891418.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675749.4527209.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>131</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>131</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731675752.8130836</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731675753.7466285</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675752.8130836.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675753.7466285.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>129.48</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>126.94</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>2.539999999999992</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>1.96</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731675754.2105975</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731675754.810833</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675754.2105975.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675754.810833.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>127.48</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>126.58</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731675755.6363666</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731675758.319811</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675755.6363666.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731675758.319811.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>125.42</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>126.1</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.6799999999999926</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -1735,51 +1889,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731675761.3983839</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731675763.592569</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675761.3983839.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675763.592569.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>173.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>174.92</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>1.419999999999987</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.8200000000000001</v>
       </c>
     </row>
@@ -1787,51 +1947,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731675764.7367055</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731675765.1281922</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675764.7367055.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675765.1281922.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>176</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>172.04</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-3.960000000000008</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-2.25</v>
       </c>
     </row>
@@ -1839,51 +2005,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731675766.0826294</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731675766.210178</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675766.0826294.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675766.210178.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>172.76</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>171.82</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.9399999999999977</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -1891,51 +2063,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731675771.7159338</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731675771.9838514</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675771.7159338.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731675771.9838514.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>170.42</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>170.46</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.04000000000002046</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1943,51 +2121,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731675778.252597</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731675779.1672916</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675778.252597.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675779.1672916.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>53.205</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>52.705</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.5</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.9400000000000001</v>
       </c>
     </row>
@@ -1995,51 +2179,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731675780.8760645</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731675781.224925</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675780.8760645.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731675781.224925.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>52.2</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>52.345</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.144999999999996</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -2047,51 +2237,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731675786.7923617</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731675787.2496173</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675786.7923617.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675787.2496173.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1460</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1460</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2099,51 +2295,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731675791.0770683</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731675791.659904</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675791.0770683.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675791.659904.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1448.8</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1448.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2151,51 +2353,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731675792.5748866</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731675793.0451474</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675792.5748866.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675793.0451474.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1445.6</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1438.2</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>7.399999999999864</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -2203,51 +2411,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731675793.8842037</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731675794.3073165</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675793.8842037.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731675794.3073165.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1417.2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1421.8</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-4.599999999999909</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -2255,51 +2469,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731675800.1791081</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731675801.5593972</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675800.1791081.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675801.5593972.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>63.54</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>63.78</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.240000000000002</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2307,51 +2527,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731675801.885337</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731675802.6617608</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675801.885337.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675802.6617608.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>63.77</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>63.72</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.05000000000000426</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2359,51 +2585,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731675803.381547</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731675804.3747702</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675803.381547.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675804.3747702.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>63.17</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>62.47</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.7000000000000028</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>1.11</v>
       </c>
     </row>
@@ -2411,51 +2643,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731675804.8017426</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731675805.3459115</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675804.8017426.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675805.3459115.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>62.36</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>62.03</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.3299999999999983</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -2463,51 +2701,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731675806.3143575</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731675806.9049604</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675806.3143575.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731675806.9049604.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>60.79</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>60.76</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2515,51 +2759,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731675814.8491025</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731675815.7827942</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675814.8491025.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675815.7827942.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>58.46</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>57.66</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.8000000000000043</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>1.37</v>
       </c>
     </row>
@@ -2567,51 +2817,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731675816.0845609</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731675817.1363552</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675816.0845609.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675817.1363552.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>57.88</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>56.84</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1.039999999999999</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -2619,51 +2875,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731675817.9931602</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731675820.7657838</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675817.9931602.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SELG1731675820.7657838.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>56.53</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>57.1</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.5700000000000003</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-1.01</v>
       </c>
     </row>
@@ -2671,51 +2933,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731675823.4569316</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731675824.5351436</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675823.4569316.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675824.5351436.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>144.82</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>144.58</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.2399999999999807</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2723,51 +2991,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731675825.9645002</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731675826.7345033</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675825.9645002.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675826.7345033.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>145.02</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>141.3</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-3.719999999999999</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-2.57</v>
       </c>
     </row>
@@ -2775,51 +3049,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731675826.9969668</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731675827.338596</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675826.9969668.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731675827.338596.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>142.64</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>144.14</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-1.05</v>
       </c>
     </row>
@@ -2827,51 +3107,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731675837.7396355</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731675838.6392329</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731675837.7396355.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731675838.6392329.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>58.56</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>57.18</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-1.380000000000003</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-2.36</v>
       </c>
     </row>
@@ -2879,51 +3165,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731675838.6541955</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731675839.491123</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731675838.6541955.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731675839.491123.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>57.18</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>56.52</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.6599999999999966</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2931,51 +3223,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731675839.8726952</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731675840.5386307</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731675839.8726952.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731675840.5386307.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>56.26</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>55.94</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.3200000000000003</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -2983,51 +3281,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731675841.04086</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731675843.4231894</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731675841.04086.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731675843.4231894.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>56.15</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>56.39</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.240000000000002</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -3035,51 +3339,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731675847.6110313</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731675848.2207353</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731675847.6110313.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731675848.2207353.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>382.56</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>382</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3087,51 +3397,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731675850.2160785</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731675851.8074632</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731675850.2160785.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731675851.8074632.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>384.3</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>381.23</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>3.069999999999993</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -3139,51 +3455,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731675852.5911396</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731675853.1227098</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731675852.5911396.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731675853.1227098.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>381.77</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>381.62</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3191,51 +3513,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731675854.61751</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731675856.1914093</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731675854.61751.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731675856.1914093.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>385.26</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>384.74</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.5199999999999818</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3243,51 +3571,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731675862.7235038</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731675863.996462</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/FEES1731675862.7235038.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/FEES1731675863.996462.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>0.10058</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>0.09886</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.001719999999999999</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>1.71</v>
       </c>
     </row>
@@ -3295,51 +3629,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731675871.24057</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731675872.206414</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675871.24057.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675872.206414.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>3131.3</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>3124.95</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-6.350000000000364</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3347,51 +3687,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731675873.6770804</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731675873.8792062</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675873.6770804.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675873.8792062.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>3132.85</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>3136.45</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3399,51 +3745,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731675874.9889748</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731675876.039785</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675874.9889748.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675876.039785.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>3117.95</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>3080.4</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>37.54999999999973</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -3451,51 +3803,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731675876.556023</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731675877.2956145</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675876.556023.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675877.2956145.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>3088.55</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>3074.05</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>14.5</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -3503,51 +3861,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731675883.9345088</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731675884.5344214</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731675883.9345088.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731675884.5344214.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>37.865</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>37.855</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3555,51 +3919,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731675887.6091764</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731675887.9980528</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731675887.6091764.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731675887.9980528.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>37.72</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>37.3</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.4200000000000017</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>1.11</v>
       </c>
     </row>
@@ -3607,51 +3977,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731675896.695521</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731675897.41659</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/TATN1731675896.695521.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/TATN1731675897.41659.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>661</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>660.4</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -3659,51 +4035,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731675898.890631</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731675899.4853566</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/TATN1731675898.890631.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/TATN1731675899.4853566.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>661.6</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>659.8</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-1.800000000000068</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -3711,51 +4093,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731675899.5022786</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731675901.1984022</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/TATN1731675899.5022786.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/TATN1731675901.1984022.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>659.8</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>650.1</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>9.699999999999932</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>1.47</v>
       </c>
     </row>
@@ -3763,51 +4151,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731675901.4816897</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731675903.4598415</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/TATN1731675901.4816897.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/TATN1731675903.4598415.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>652.6</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>653</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3815,51 +4209,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731675908.1050398</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731675908.8807523</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/TATN1731675908.1050398.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/TATN1731675908.8807523.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>653.3</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>651.4</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>1.899999999999977</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.29</v>
       </c>
     </row>
